--- a/data/trans_camb/P29_R-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P29_R-Clase-trans_camb.xlsx
@@ -655,7 +655,7 @@
         <v>3.126946548011367</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>6.786167510731255</v>
+        <v>6.78616751073125</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>5.341431525477736</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.009223728023639906</v>
+        <v>-0.9701221993253609</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-0.3293670058138743</v>
+        <v>0.1027004225957396</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.09077748011769936</v>
+        <v>0.04797802589164817</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-2.352039872173875</v>
+        <v>-3.318897810358565</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-5.112095425367431</v>
+        <v>-4.42704367103681</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.09916568729249789</v>
+        <v>-0.1525931651420654</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.4111094829821827</v>
+        <v>0.2739733503327256</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-0.9249806083888306</v>
+        <v>-1.383473437808841</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.396406271504747</v>
+        <v>0.3774469550095215</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>12.79301870133595</v>
+        <v>12.44767850855769</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>12.71308622326604</v>
+        <v>13.34196600195524</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>12.34425395464453</v>
+        <v>12.10132018255472</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>13.31764028397299</v>
+        <v>13.9869680729115</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>10.08783568321184</v>
+        <v>11.51467363674339</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>13.77312966392321</v>
+        <v>13.11563923895249</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>10.82220798368826</v>
+        <v>10.38316165215099</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>8.818720773796827</v>
+        <v>8.762561027962876</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>9.876163490848535</v>
+        <v>9.580468742613778</v>
       </c>
     </row>
     <row r="7">
@@ -760,7 +760,7 @@
         <v>0.07488209910152242</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.162510762578044</v>
+        <v>0.1625107625780439</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>0.09976181710737306</v>
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>0.001140308252820466</v>
+        <v>-0.01367282131227541</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.004165369754004817</v>
+        <v>0.0007590937927697906</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.001642924732901659</v>
+        <v>0.0008235799679701939</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.05390128169874193</v>
+        <v>-0.07418010322914116</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.1101762040202441</v>
+        <v>-0.09916843245187015</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.002948960514517394</v>
+        <v>-0.003618458485019573</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.00783127126889044</v>
+        <v>0.005896057363599136</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.01617579262016666</v>
+        <v>-0.02506826951833499</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>0.003254859531523381</v>
+        <v>0.006670296624713116</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.2263959223642297</v>
+        <v>0.2169917368804186</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.2209654077511818</v>
+        <v>0.2282117126472418</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.2195337548081077</v>
+        <v>0.2124623877236231</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.3533656880794505</v>
+        <v>0.377280174667717</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.2625548382282358</v>
+        <v>0.3079351453172454</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.3757107095623964</v>
+        <v>0.3452758941000756</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2120922904638619</v>
+        <v>0.2033539829526061</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.1726184793049549</v>
+        <v>0.1738357748129433</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.1957853395066315</v>
+        <v>0.1887890507739443</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>2.528588558410494</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>-3.871661448392039</v>
+        <v>-3.871661448392016</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>0.7871190790245619</v>
@@ -869,7 +869,7 @@
         <v>10.04375181984672</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>8.327897609711925</v>
+        <v>8.327897609711933</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>1.413828869415257</v>
@@ -878,7 +878,7 @@
         <v>6.390552594835174</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>2.539713298414048</v>
+        <v>2.539713298414037</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-7.17899691343468</v>
+        <v>-7.750065437655591</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-4.134949849204811</v>
+        <v>-3.4024688109909</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-11.61688395213779</v>
+        <v>-11.03164624136516</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-6.406001804596798</v>
+        <v>-6.985879757641331</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>3.015626553428032</v>
+        <v>2.129191032752438</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>1.362346179668779</v>
+        <v>1.423635420254385</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-3.843363515036558</v>
+        <v>-4.305784404248944</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>1.019712787452991</v>
+        <v>0.6249168133030949</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-2.184657835383548</v>
+        <v>-2.154067323499434</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>7.135283363779409</v>
+        <v>7.433609745896693</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>10.21376959891556</v>
+        <v>10.94935227661529</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3.028718885095003</v>
+        <v>3.415304053197662</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>8.379781434286642</v>
+        <v>8.380728722159711</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>17.54760835457286</v>
+        <v>16.98431587339362</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>15.26003679679874</v>
+        <v>14.85941314644019</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>6.613087017078907</v>
+        <v>6.491116968920113</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>11.56374767588572</v>
+        <v>12.18182097315128</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>7.503835201501199</v>
+        <v>7.406645273040768</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>0.04156720017367362</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>-0.0636458335203306</v>
+        <v>-0.06364583352033024</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>0.01902367944784343</v>
@@ -974,7 +974,7 @@
         <v>0.2427448656323268</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2012748246401959</v>
+        <v>0.2012748246401961</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>0.02770115527134406</v>
@@ -983,7 +983,7 @@
         <v>0.1252101251634759</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>0.04976061385219988</v>
+        <v>0.04976061385219966</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.1108517949842618</v>
+        <v>-0.1190796198443711</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.06333291008295754</v>
+        <v>-0.05513608984265984</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.178275977592308</v>
+        <v>-0.1726635412007206</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.14285258925682</v>
+        <v>-0.1569457579529061</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.06621802970022959</v>
+        <v>0.04849569032630388</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.02936620888367995</v>
+        <v>0.03098654690204904</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.07176666437390439</v>
+        <v>-0.08007105727438667</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.01815520125300657</v>
+        <v>0.01120687486372556</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.0410771771208746</v>
+        <v>-0.04060395678817568</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.126099862679066</v>
+        <v>0.1301245835208046</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.1760842774211035</v>
+        <v>0.1820429139009664</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.05338380139148966</v>
+        <v>0.05935434844822352</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.235866086168864</v>
+        <v>0.2188869939814811</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.4659587556034311</v>
+        <v>0.4617848634821153</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.4159510330662552</v>
+        <v>0.3918573547617119</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1363956238311584</v>
+        <v>0.1363626282671519</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.2401751416071184</v>
+        <v>0.2503786693844045</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.154831636441988</v>
+        <v>0.1516645380282384</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>1.777902389298425</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>-4.358704896748811</v>
+        <v>-4.358704896748822</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>-6.237758143677052</v>
@@ -1083,7 +1083,7 @@
         <v>-2.546816602134105</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>0.2499663042579092</v>
+        <v>0.2499663042579037</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>-3.816475706189149</v>
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-6.341483466887049</v>
+        <v>-6.235402001199553</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-4.034192121048739</v>
+        <v>-3.760753335727317</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-10.65977143722239</v>
+        <v>-10.59718289773031</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-15.3400267450806</v>
+        <v>-14.96523303055974</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-11.87086255487793</v>
+        <v>-13.43845667823755</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-10.05992807957632</v>
+        <v>-9.510345109112972</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-9.021099902134198</v>
+        <v>-8.92065994836425</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-4.487761869035862</v>
+        <v>-4.864759780486257</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-9.687695630124679</v>
+        <v>-9.039685519106886</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>4.775172555117152</v>
+        <v>5.273729667198927</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>7.661487733530175</v>
+        <v>7.582729224541652</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1.770728928927709</v>
+        <v>1.459084392118285</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>3.042972966386013</v>
+        <v>3.735140877781501</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>9.759064200245279</v>
+        <v>8.295973938857799</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>9.583086132579888</v>
+        <v>9.135206453556069</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>1.003330475096299</v>
+        <v>1.550709768587482</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>6.125208866196943</v>
+        <v>6.901901077522421</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.9447172667888937</v>
+        <v>2.178565068538866</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>0.02846483329457828</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>-0.06978437568508804</v>
+        <v>-0.06978437568508822</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>-0.1694214112234291</v>
@@ -1188,7 +1188,7 @@
         <v>-0.06917313126322423</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.006789241110383232</v>
+        <v>0.006789241110383081</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>-0.06766604634575905</v>
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.09720280860614029</v>
+        <v>-0.09541260583978729</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.06154236947726467</v>
+        <v>-0.05719106574628056</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.1604615783279494</v>
+        <v>-0.1613027365932371</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.3731021437406896</v>
+        <v>-0.3627893842611369</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.287409810736104</v>
+        <v>-0.3232786076801148</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.2295780420270342</v>
+        <v>-0.2184871542098544</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.153284049130911</v>
+        <v>-0.149924137295227</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.07779536009298681</v>
+        <v>-0.08178398793283749</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.1622463621447155</v>
+        <v>-0.1525163907242723</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.08012754341519694</v>
+        <v>0.08887679140275138</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.1301424296662246</v>
+        <v>0.1304750624608663</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.03057865273137665</v>
+        <v>0.02657778603067741</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.09273720658550556</v>
+        <v>0.1147816181492472</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.3183355398102418</v>
+        <v>0.2615373776736803</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.3122239225841921</v>
+        <v>0.2845931031902251</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.01958966624215732</v>
+        <v>0.03022950255302927</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.1131278843625788</v>
+        <v>0.1301610343082727</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.0171110881885213</v>
+        <v>0.03916722435560067</v>
       </c>
     </row>
     <row r="22">
@@ -1306,7 +1306,7 @@
         <v>4.341619471868741</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>4.459149712664118</v>
+        <v>4.459149712664123</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-0.9086293909385146</v>
+        <v>-0.9089688551167808</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-0.3636977564751209</v>
+        <v>-0.7840881549046372</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-0.9912806469674187</v>
+        <v>-1.010410399486406</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-1.586350170929095</v>
+        <v>-1.529211775673561</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>4.165684282614189</v>
+        <v>4.486240697013831</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>5.815323860724394</v>
+        <v>5.711357990031791</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-0.9119012762299763</v>
+        <v>-0.9189738462861518</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>1.213740279777482</v>
+        <v>1.218818683687811</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>1.399817773748678</v>
+        <v>1.262414395287366</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>7.629233407847792</v>
+        <v>7.522465726426811</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>7.767650191166371</v>
+        <v>7.414261442656191</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>7.275136416714839</v>
+        <v>7.540433176633235</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>7.880746665096908</v>
+        <v>8.105726899873813</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>14.0487294100285</v>
+        <v>13.93998388794702</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>14.52093783244739</v>
+        <v>14.34078396165265</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>5.630809985799492</v>
+        <v>5.749129427165058</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>7.422308178268786</v>
+        <v>7.794012536215579</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>7.890575231958903</v>
+        <v>7.736346749205445</v>
       </c>
     </row>
     <row r="25">
@@ -1411,7 +1411,7 @@
         <v>0.09824869676208385</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>0.1009083478584314</v>
+        <v>0.1009083478584316</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.01620984488207747</v>
+        <v>-0.01668740037936455</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.007394078755345906</v>
+        <v>-0.01418253210981569</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.01757562208670443</v>
+        <v>-0.01779052965167056</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.05470661379793329</v>
+        <v>-0.05478664518188125</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.1420791105598184</v>
+        <v>0.1620779600058108</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.190059438278039</v>
+        <v>0.1876009923451498</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.01839938851072593</v>
+        <v>-0.01972322383348949</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.0262004426699387</v>
+        <v>0.02657446172184757</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.03204712299608732</v>
+        <v>0.02724332402106467</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.1467469285476678</v>
+        <v>0.1450348712325859</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.14808226446571</v>
+        <v>0.1437465176527845</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.1397503038835397</v>
+        <v>0.143867766091775</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.3152838854700639</v>
+        <v>0.322383496638409</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.5630038015644484</v>
+        <v>0.5826646675041427</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.6057455921181127</v>
+        <v>0.583880233026569</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1365088819032763</v>
+        <v>0.1358036409688727</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.1765262551392578</v>
+        <v>0.1835651397567462</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.1878494222439388</v>
+        <v>0.18061111873189</v>
       </c>
     </row>
     <row r="28">
@@ -1520,7 +1520,7 @@
         <v>-1.375520981742689</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>-0.812664645176403</v>
+        <v>-0.8126646451763919</v>
       </c>
     </row>
     <row r="29">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-8.895358732778453</v>
+        <v>-9.457715351752521</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-17.77607077665404</v>
+        <v>-17.74552854054837</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-16.38484803551718</v>
+        <v>-16.34064764633477</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-4.754795404563969</v>
+        <v>-4.675939425912998</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-3.570355719726541</v>
+        <v>-3.86631399107221</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-1.335188759053945</v>
+        <v>-1.546904855311371</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-4.693999992722458</v>
+        <v>-4.54805862499019</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-6.026272163666031</v>
+        <v>-5.65871655493909</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-5.025193031924292</v>
+        <v>-5.055059614553644</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>4.762102085077622</v>
+        <v>5.005839907946255</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>-3.907868405711491</v>
+        <v>-3.639730839891185</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>-2.149461853069383</v>
+        <v>-1.725778023118419</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>5.484875902533442</v>
+        <v>4.9782992296356</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>6.142000460032811</v>
+        <v>5.983514462489925</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>7.890031008931637</v>
+        <v>8.052263432182139</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>3.958855518816008</v>
+        <v>3.997005765686094</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>2.569888691504791</v>
+        <v>2.473872380788642</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>2.997448682879628</v>
+        <v>3.147148764791694</v>
       </c>
     </row>
     <row r="31">
@@ -1625,7 +1625,7 @@
         <v>-0.03547448430380787</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>-0.02095850196559397</v>
+        <v>-0.02095850196559368</v>
       </c>
     </row>
     <row r="32">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.1362016322979828</v>
+        <v>-0.1443047226472519</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.266676573949036</v>
+        <v>-0.2661618094577337</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.2493183108967421</v>
+        <v>-0.2473884980284859</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.173245902606101</v>
+        <v>-0.1730961253316768</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.1278344701189422</v>
+        <v>-0.1343717303212833</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.04743352798715893</v>
+        <v>-0.05428676898183814</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.1137796401543674</v>
+        <v>-0.1111766125539917</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.1472398601892924</v>
+        <v>-0.137576503892908</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.123953678922659</v>
+        <v>-0.1223331439259134</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.08222417608234808</v>
+        <v>0.08650002136841047</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>-0.06781664998272266</v>
+        <v>-0.06306767078438683</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>-0.03746404432281862</v>
+        <v>-0.03049685523589721</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.2542454081189983</v>
+        <v>0.2334780533080711</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.2900150353975896</v>
+        <v>0.2725275464010055</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.3469098997799775</v>
+        <v>0.3775920982518577</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.1080762708051487</v>
+        <v>0.1080710115058581</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.07074250434964875</v>
+        <v>0.06709469234773206</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.08195024602868139</v>
+        <v>0.0875406057332494</v>
       </c>
     </row>
     <row r="34">
@@ -1716,7 +1716,7 @@
         <v>9.858743486437611</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>-3.442941278708167</v>
+        <v>-3.442941278708172</v>
       </c>
       <c r="F34" s="5" t="n">
         <v>6.382556544041062</v>
@@ -1725,7 +1725,7 @@
         <v>6.194016926219622</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>6.755855981810369</v>
+        <v>6.755855981810363</v>
       </c>
       <c r="I34" s="5" t="n">
         <v>6.252410473045956</v>
@@ -1745,31 +1745,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-2.778208064009509</v>
+        <v>-2.39602021935755</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>1.109114079250249</v>
+        <v>1.524700156321617</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-13.8765841472258</v>
+        <v>-16.22371834676327</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>3.279218766988346</v>
+        <v>3.161693238426924</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>2.889816782133765</v>
+        <v>2.754949700319518</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>3.376638402686699</v>
+        <v>2.885592076318074</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>3.302103125742328</v>
+        <v>3.084333749776635</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>4.290375759474158</v>
+        <v>4.331267893477066</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>1.837110641533685</v>
+        <v>1.714452162625864</v>
       </c>
     </row>
     <row r="36">
@@ -1780,31 +1780,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>13.94922414827476</v>
+        <v>14.82634141753267</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>17.83865410815939</v>
+        <v>17.72083069366361</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>8.678103748658133</v>
+        <v>7.705810751109199</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>9.760505264615205</v>
+        <v>9.774741460987567</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>9.129688105396012</v>
+        <v>9.347246511467311</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>11.04595573359847</v>
+        <v>10.86000515598791</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>9.293816523725361</v>
+        <v>9.5291282109897</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>11.15864839860916</v>
+        <v>10.94982421341336</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>10.22920038271816</v>
+        <v>9.559342987798585</v>
       </c>
     </row>
     <row r="37">
@@ -1821,7 +1821,7 @@
         <v>0.2107270861172727</v>
       </c>
       <c r="E37" s="6" t="n">
-        <v>-0.0735916280135625</v>
+        <v>-0.07359162801356263</v>
       </c>
       <c r="F37" s="6" t="n">
         <v>0.3654414252771314</v>
@@ -1830,7 +1830,7 @@
         <v>0.3546463486988909</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.3868151612796634</v>
+        <v>0.3868151612796631</v>
       </c>
       <c r="I37" s="6" t="n">
         <v>0.2704675999556793</v>
@@ -1850,31 +1850,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.05712347203160692</v>
+        <v>-0.04858940608098394</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>0.01371883889221794</v>
+        <v>0.03210684431795661</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.2778803205934067</v>
+        <v>-0.3231964415635529</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>0.176902987277132</v>
+        <v>0.1618275558017645</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>0.1611787310703697</v>
+        <v>0.1384197191766492</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.1820906424970613</v>
+        <v>0.1481003395107302</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.1300187612097438</v>
+        <v>0.1281525204502498</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>0.1771918035778697</v>
+        <v>0.1792024161742504</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>0.07842888158384041</v>
+        <v>0.0695357038051017</v>
       </c>
     </row>
     <row r="39">
@@ -1885,31 +1885,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>0.3272818206163129</v>
+        <v>0.3518987333836668</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>0.4129054239337042</v>
+        <v>0.4160105703528119</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>0.2052500972957778</v>
+        <v>0.1790234698674565</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>0.6055293316822737</v>
+        <v>0.6055789926380275</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.5664478274069885</v>
+        <v>0.5830932696977421</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.6982267200834352</v>
+        <v>0.6624867462491383</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.431685378662273</v>
+        <v>0.4481374940734289</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>0.5310335765821805</v>
+        <v>0.5096666588756864</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>0.4632097421609683</v>
+        <v>0.4381441314909177</v>
       </c>
     </row>
     <row r="40">
@@ -1930,7 +1930,7 @@
         <v>1.749854262922768</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>-0.2017375113688158</v>
+        <v>-0.2017375113688269</v>
       </c>
       <c r="F40" s="5" t="n">
         <v>3.16552492458394</v>
@@ -1939,7 +1939,7 @@
         <v>6.084355195549362</v>
       </c>
       <c r="H40" s="5" t="n">
-        <v>8.594838751873906</v>
+        <v>8.594838751873912</v>
       </c>
       <c r="I40" s="5" t="n">
         <v>2.725037251383894</v>
@@ -1948,7 +1948,7 @@
         <v>3.896100818978948</v>
       </c>
       <c r="K40" s="5" t="n">
-        <v>4.148725931943876</v>
+        <v>4.148725931943886</v>
       </c>
     </row>
     <row r="41">
@@ -1959,31 +1959,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-0.2320891843322188</v>
+        <v>-0.3277484280524542</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-0.6547847055831509</v>
+        <v>-0.477753814297866</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-2.559534632641053</v>
+        <v>-2.654268781733852</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>1.111562779450008</v>
+        <v>0.9494397451062415</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>4.128155592309364</v>
+        <v>3.860674690541687</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>6.659381890322375</v>
+        <v>6.408564784124973</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>0.8901584325820494</v>
+        <v>0.9903509257514302</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>2.082580841233937</v>
+        <v>2.173095364740962</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>2.506453469066367</v>
+        <v>2.52525950302926</v>
       </c>
     </row>
     <row r="42">
@@ -1994,31 +1994,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>4.753800204512922</v>
+        <v>4.817755498059737</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>4.15249742524513</v>
+        <v>4.252133480532684</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>2.402932074482331</v>
+        <v>2.385926957169743</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>5.448889789899232</v>
+        <v>5.451310232045898</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>8.586012609912476</v>
+        <v>8.234367918054735</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>10.64285591249444</v>
+        <v>10.5228128332289</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>4.356599274155501</v>
+        <v>4.399221102762223</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>5.444779128227108</v>
+        <v>5.767616594188144</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>5.781084814626296</v>
+        <v>5.841737470488766</v>
       </c>
     </row>
     <row r="43">
@@ -2035,7 +2035,7 @@
         <v>0.03048820434076197</v>
       </c>
       <c r="E43" s="6" t="n">
-        <v>-0.003514929557354065</v>
+        <v>-0.003514929557354258</v>
       </c>
       <c r="F43" s="6" t="n">
         <v>0.1194113923081599</v>
@@ -2044,7 +2044,7 @@
         <v>0.2295168550263204</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.3242184744952799</v>
+        <v>0.3242184744952801</v>
       </c>
       <c r="I43" s="6" t="n">
         <v>0.06534668778878112</v>
@@ -2053,7 +2053,7 @@
         <v>0.09342891869905121</v>
       </c>
       <c r="K43" s="6" t="n">
-        <v>0.09948689620968562</v>
+        <v>0.09948689620968588</v>
       </c>
     </row>
     <row r="44">
@@ -2064,31 +2064,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.00411414573996955</v>
+        <v>-0.005251197154885043</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.01111732589628023</v>
+        <v>-0.008485846246590194</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.0438886908168065</v>
+        <v>-0.04546631231014367</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>0.03980601205537074</v>
+        <v>0.03444252772083341</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>0.1496258493527245</v>
+        <v>0.1387267066751026</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.2404497764407942</v>
+        <v>0.2341198174623221</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.01964091304941962</v>
+        <v>0.02386915481002533</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>0.04775983830869313</v>
+        <v>0.05088241456569084</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>0.05884823586712506</v>
+        <v>0.05942181225972928</v>
       </c>
     </row>
     <row r="45">
@@ -2099,31 +2099,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.0845354270497705</v>
+        <v>0.08483761480695648</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.07395250715581607</v>
+        <v>0.07568486408762637</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>0.04301319317130198</v>
+        <v>0.04233370075294969</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.2127674420187758</v>
+        <v>0.2140537983555484</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.3393807985698978</v>
+        <v>0.3243843198304421</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.4203706495837724</v>
+        <v>0.4123803230801289</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.1060083458862975</v>
+        <v>0.107602573354698</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>0.1321063384168505</v>
+        <v>0.1413255707965695</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>0.1419511815400122</v>
+        <v>0.1430377827674878</v>
       </c>
     </row>
     <row r="46">
